--- a/test/Tests.xlsx
+++ b/test/Tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirill\Desktop\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0115.korkom\Documents\GitHub\VortexFile\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610864A4-F841-4879-A17A-C66811A65481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C13C645-908B-4BB9-99C1-8DDA429A71F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="122">
   <si>
     <t>Действие</t>
   </si>
@@ -52,12 +52,6 @@
     <t>Вывод сообщения об ошибке: "Отсутсвует подключение к серверу базы данных"</t>
   </si>
   <si>
-    <t>Открытие формы файлового менеджера и вывод сообщения об ошибке: "Отсутсвует подключение к FTP-серверу"</t>
-  </si>
-  <si>
-    <t>Скачивание и удаление файлов и папок</t>
-  </si>
-  <si>
     <t>Загрузка/ создание файлов и папок</t>
   </si>
   <si>
@@ -167,13 +161,238 @@
   </si>
   <si>
     <t>Нажатие на кнопку "Изменить пароль администратора"</t>
+  </si>
+  <si>
+    <t>Загрузка файла в локальное хранилище</t>
+  </si>
+  <si>
+    <t>Загрузка файлов в облачное хранилище</t>
+  </si>
+  <si>
+    <t>Загрузка файла, который уже был загружен в локальное хранилище</t>
+  </si>
+  <si>
+    <t>Отображение диалогового окна с сообщением: "Файл с именем ... уже существует. Заменить?"</t>
+  </si>
+  <si>
+    <t>Загрузка файла в облачное хранилище</t>
+  </si>
+  <si>
+    <t>Загрузка файлов в локальное хранилище</t>
+  </si>
+  <si>
+    <t>Загрузка файла, который уже был загружен в облачное хранилище</t>
+  </si>
+  <si>
+    <t>Загрузка файла в облачное и локальное хранилища</t>
+  </si>
+  <si>
+    <t>Отображение загруженного файла в локальном и облачном хранилище</t>
+  </si>
+  <si>
+    <t>Загрузка файлов в облачное и локальное хранилища</t>
+  </si>
+  <si>
+    <t>Отображение загруженных файлов в локальном и облачном хранилище</t>
+  </si>
+  <si>
+    <t>Загрузка каталога в локальное хранилище</t>
+  </si>
+  <si>
+    <t>Отображение загруженного каталога в локальном хранилище</t>
+  </si>
+  <si>
+    <t>Отображение загруженного файла в локальном хранилище</t>
+  </si>
+  <si>
+    <t>Отображение загруженных файлов в локальном хранилище</t>
+  </si>
+  <si>
+    <t>Отображение загруженного файла в облачном хранилище</t>
+  </si>
+  <si>
+    <t>Отображение загруженных файлов в облачном хранилище</t>
+  </si>
+  <si>
+    <t>Загрузка каталога в облачное хранилище</t>
+  </si>
+  <si>
+    <t>Отображение загруженного каталога в облачном хранилище</t>
+  </si>
+  <si>
+    <t>Загрузка каталога с именем, занятым в локальном хранилище другим каталогом</t>
+  </si>
+  <si>
+    <t>Слияние каталогов в локальном хранилище</t>
+  </si>
+  <si>
+    <t>Загрузка каталога с именем, занятым в облачном хранилище другим каталогом</t>
+  </si>
+  <si>
+    <t>Слияние каталогов в облачном хранилище</t>
+  </si>
+  <si>
+    <t>Создание папки в локальном хранилище</t>
+  </si>
+  <si>
+    <t>Отображение созданной папки в локальном хранилище</t>
+  </si>
+  <si>
+    <t>Создание папки в облачном хранилище</t>
+  </si>
+  <si>
+    <t>Отображение созданной папки в облачном хранилище</t>
+  </si>
+  <si>
+    <t>Создание папки в локальном хранилище с занятым именем</t>
+  </si>
+  <si>
+    <t>Вывод сообщения об ошибке: "Папка с именем ... уже есть в каталоге"</t>
+  </si>
+  <si>
+    <t>Создание папки в облачном хранилище с занятым именем</t>
+  </si>
+  <si>
+    <t>Вывод сообщения об ошибке: "Запрошенное действие не может быть выполнено с указанным файлом, потому что файл недоступен. Возможно файл с заданным именем уже существует. Код ошибки - 550"</t>
+  </si>
+  <si>
+    <t>Открытие папки в локальном хранилище</t>
+  </si>
+  <si>
+    <t>Отображение файлов в папке локального хранилища</t>
+  </si>
+  <si>
+    <t>Открытие папки в облачном хранилище</t>
+  </si>
+  <si>
+    <t>Отображение файлов в папке облачного хранилища</t>
+  </si>
+  <si>
+    <t>Выделить файл в локальном хранилище и нажать на кнопку "Cкачать"</t>
+  </si>
+  <si>
+    <t>Отображение диалогового окна выбора пути файла и скачивание файла из локального хранилища</t>
+  </si>
+  <si>
+    <t>Открыть папку и выделить файл в локальном хранилище и нажать на кнопку "Cкачать"</t>
+  </si>
+  <si>
+    <t>Выделить файл в облачном хранилище и нажать на кнопку "Cкачать"</t>
+  </si>
+  <si>
+    <t>Открыть папку и выделить файл в облачном хранилище и нажать на кнопку "Cкачать"</t>
+  </si>
+  <si>
+    <t>Отображение диалогового окна выбора пути файла и скачивание файла из облачного хранилища</t>
+  </si>
+  <si>
+    <t>Отображение диалогового окна выбора пути файла и скачивание файла из облачного хранилища</t>
+  </si>
+  <si>
+    <t>Замена файла</t>
+  </si>
+  <si>
+    <t>Отображение диалогового окна выбора пути файла и скачивание файла с папкой из локального хранилища</t>
+  </si>
+  <si>
+    <t>Выделить файл в локальном хранилище и нажать кнопку "Удалить"</t>
+  </si>
+  <si>
+    <t>Выделить папку в локальном хранилище и нажать кнопку "Удалить"</t>
+  </si>
+  <si>
+    <t>Удаление файла в локальном хранилище</t>
+  </si>
+  <si>
+    <t>Удаление папки в локальном хранилище</t>
+  </si>
+  <si>
+    <t>Открыть папку и выделить файл в локальном хранилище, нажать на кнопку удалить</t>
+  </si>
+  <si>
+    <t>Удаление учетной записи пользователя</t>
+  </si>
+  <si>
+    <t>Выделить файл в облачном хранилище и нажать кнопку "Удалить"</t>
+  </si>
+  <si>
+    <t>Выделить папку в облачном хранилище и нажать кнопку "Удалить"</t>
+  </si>
+  <si>
+    <t>Открыть папку и выделить файл в облачном хранилище, нажать на кнопку удалить</t>
+  </si>
+  <si>
+    <t>Удаление файла в облачном хранилище</t>
+  </si>
+  <si>
+    <t>Удаление папки в облачном хранилище</t>
+  </si>
+  <si>
+    <t>Непредвиденная ошибка</t>
+  </si>
+  <si>
+    <t>Создание папки в текущей папке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открыть папку в локальном хранилище и создать новую папку в ней </t>
+  </si>
+  <si>
+    <t>Заполнить обязательные поля корректными значениями и нажать на кнопку "Зарегестрироваться"</t>
+  </si>
+  <si>
+    <t>Заполнить поля корректными значениями, кроме поля для ввода CAPTCHA и нажать на кнопку "Зарегестрироваться"</t>
+  </si>
+  <si>
+    <t>Заполнить поля корректными значениями, кроме поля логина и нажать на кнопку "Зарегестрироваться"</t>
+  </si>
+  <si>
+    <t>Вывод сообщения: "Неправильно указан текст с картинки"</t>
+  </si>
+  <si>
+    <t>Регистрация пользователя, вывод сообщения: "Вы успешно зарегестрировались", и переход на форму авторизации</t>
+  </si>
+  <si>
+    <t>Вывод сообщения: "Введен некорректный логин. Логин должен состоять из 2 - 30 символов, которые могут быть строчными и прописными латинскими буквами или цифрами"</t>
+  </si>
+  <si>
+    <t>Ввести в поле пароля значение: "qwerty"</t>
+  </si>
+  <si>
+    <t>Отображение индикатора сложности пароля, как слишкой простой</t>
+  </si>
+  <si>
+    <t>Ввести в поле пароля значение: "zfsaf123"</t>
+  </si>
+  <si>
+    <t>Отображение индикатора сложности пароля, как нормальный</t>
+  </si>
+  <si>
+    <t>Ввести в поле пароля значение: "zfsafGG123"</t>
+  </si>
+  <si>
+    <t>Отображение индикатора сложности пароля, как надежный</t>
+  </si>
+  <si>
+    <t>Ввод отличного пароля в поле потверждения пароля</t>
+  </si>
+  <si>
+    <t>Открытие формы файлового менеджера и вывод сообщения об ошибке: "При работе с FTP-сервером возникла непредвиденная ошибка или отсутствует подключение к FTP-серверу."</t>
+  </si>
+  <si>
+    <t>Вывод сообщения об ошибке: "Отсутсвует подключение к серверу базы данных. Попробуйте еще раз или обратитетсь к системному администратору."</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Ошибка возможно имя занято</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +401,42 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,8 +451,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -543,157 +817,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" customWidth="1"/>
+    <col min="1" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="49.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
       <c r="B28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -704,89 +1085,89 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>21</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
         <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -802,131 +1183,451 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/Tests.xlsx
+++ b/test/Tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0115.korkom\Documents\GitHub\VortexFile\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C13C645-908B-4BB9-99C1-8DDA429A71F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14D2A73-DF29-4E03-A19D-D95448FA9769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
   <si>
     <t>Действие</t>
   </si>
@@ -413,18 +413,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -451,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -460,23 +454,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -819,13 +807,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" customWidth="1"/>
@@ -950,16 +940,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -975,13 +965,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1030,14 +1020,17 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>102</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1050,19 +1043,19 @@
       <c r="C25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1280,7 +1273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -1291,7 +1284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -1302,7 +1295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1313,7 +1306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -1321,7 +1314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>47</v>
       </c>
@@ -1343,7 +1336,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -1354,7 +1347,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>49</v>
       </c>
@@ -1365,7 +1358,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>51</v>
       </c>
@@ -1376,7 +1369,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>48</v>
       </c>
@@ -1387,18 +1380,21 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>54</v>
       </c>
@@ -1409,7 +1405,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>56</v>
       </c>
@@ -1420,7 +1416,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>58</v>
       </c>
@@ -1431,7 +1427,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
@@ -1442,7 +1438,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
@@ -1453,18 +1449,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>74</v>
       </c>
@@ -1497,18 +1496,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>78</v>
       </c>
@@ -1519,7 +1518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>80</v>
       </c>
@@ -1530,7 +1529,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -1549,7 +1548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>105</v>
       </c>
@@ -1560,7 +1559,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>107</v>
       </c>

--- a/test/Tests.xlsx
+++ b/test/Tests.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0115.korkom\Documents\GitHub\VortexFile\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14D2A73-DF29-4E03-A19D-D95448FA9769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
   <si>
     <t>Действие</t>
   </si>
@@ -62,12 +56,6 @@
   </si>
   <si>
     <t>Администрирование</t>
-  </si>
-  <si>
-    <t>Денис</t>
-  </si>
-  <si>
-    <t>Коля</t>
   </si>
   <si>
     <t>Вывод сообщения об ошибке: "Пользователя по указанным данным не существует"</t>
@@ -391,7 +379,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,7 +515,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -560,26 +548,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,23 +583,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -804,11 +758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -857,7 +811,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -868,7 +822,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -879,7 +833,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -904,10 +858,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -930,142 +884,139 @@
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1080,88 +1031,85 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" t="s">
-        <v>24</v>
-      </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1176,143 +1124,141 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -1327,215 +1273,213 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -1550,79 +1494,79 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" t="s">
         <v>106</v>
       </c>
-      <c r="B79" t="s">
-        <v>108</v>
-      </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/test/Tests.xlsx
+++ b/test/Tests.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -761,15 +762,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="75.42578125" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" customWidth="1"/>
+    <col min="3" max="3" width="100.85546875" customWidth="1"/>
     <col min="4" max="4" width="49.42578125" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" customWidth="1"/>
@@ -1573,4 +1574,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>